--- a/biology/Zoologie/Chevalier_sylvain/Chevalier_sylvain.xlsx
+++ b/biology/Zoologie/Chevalier_sylvain/Chevalier_sylvain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tringa glareola
 Le Chevalier sylvain (Tringa glareola) est une espèce d'oiseaux limicoles de la famille des Scolopacidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche de l'Atlantique Nord (Scandinavie) au Pacifique (mer de Béring). Né en Europe, il hiverne en Afrique du Sud et à Madagascar. Né en Sibérie, il gagne l'Asie du Sud et l'Australie. L'espèce bat des records de vitesse : un spécimen bagué a parcouru 1 100 kilomètres en un jour.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de petite taille (19 à 23 cm de longueur).
 </t>
@@ -574,9 +590,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chevalier sylvain bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[1]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chevalier sylvain bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
